--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.052899999999994</v>
+        <v>-6.939899999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.0281</v>
+        <v>-11.0418</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.254300000000001</v>
+        <v>-7.387200000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.234200000000001</v>
+        <v>-8.347399999999997</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.84939999999999</v>
+        <v>-12.7943</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.290599999999998</v>
+        <v>-8.160500000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.46930000000001</v>
+        <v>-13.3625</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.028700000000001</v>
+        <v>-8.407299999999994</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.66390000000001</v>
+        <v>-12.70210000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.7765</v>
+        <v>-7.873999999999994</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.47299999999999</v>
+        <v>-12.89399999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.597399999999999</v>
+        <v>-7.6271</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.65239999999999</v>
+        <v>-14.64799999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.604899999999999</v>
+        <v>-7.621599999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.9917</v>
+        <v>-13.03650000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.56329999999999</v>
+        <v>-13.6077</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.76099999999999</v>
+        <v>-12.81909999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.2913</v>
+        <v>-8.364299999999998</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.13170000000001</v>
+        <v>-10.68750000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.5917</v>
+        <v>-11.87479999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.8318</v>
+        <v>-11.6041</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.998099999999993</v>
+        <v>-6.965799999999994</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.2693</v>
+        <v>-13.56920000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.063199999999993</v>
+        <v>-9.0039</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.34689999999999</v>
+        <v>-13.45339999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.4324</v>
+        <v>-10.3491</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.01120000000001</v>
+        <v>-10.83910000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.84329999999999</v>
+        <v>-13.01299999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.016600000000006</v>
+        <v>-7.973600000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.960199999999997</v>
+        <v>-7.859299999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
